--- a/Code/Results/Cases/Case_8_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9483843050470284</v>
+        <v>0.9112433446763646</v>
       </c>
       <c r="C2">
-        <v>0.2182416151863151</v>
+        <v>0.2437436758843035</v>
       </c>
       <c r="D2">
-        <v>0.0644660174057492</v>
+        <v>0.06573462954174403</v>
       </c>
       <c r="E2">
-        <v>1.297185606526284</v>
+        <v>1.304392316148025</v>
       </c>
       <c r="F2">
-        <v>0.5236987707892524</v>
+        <v>0.484851935704981</v>
       </c>
       <c r="G2">
-        <v>0.0008054162511657538</v>
+        <v>0.002308855370519183</v>
       </c>
       <c r="H2">
-        <v>0.005305153042481026</v>
+        <v>0.005998771992364871</v>
       </c>
       <c r="I2">
-        <v>0.0006402342588138765</v>
+        <v>0.001185162165490361</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3029931583683876</v>
+        <v>0.2680690877122949</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1498330814363911</v>
       </c>
       <c r="M2">
-        <v>1.105266967482777</v>
+        <v>0.06290229904032962</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.112269014085712</v>
       </c>
       <c r="P2">
-        <v>0.7459262889844336</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.560803891462541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7156884627514195</v>
+      </c>
+      <c r="S2">
+        <v>1.419529305479386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8254981408177287</v>
+        <v>0.7977222047181272</v>
       </c>
       <c r="C3">
-        <v>0.192429451200411</v>
+        <v>0.2126436640565146</v>
       </c>
       <c r="D3">
-        <v>0.05801484807928858</v>
+        <v>0.05838782769602346</v>
       </c>
       <c r="E3">
-        <v>1.129496231215398</v>
+        <v>1.137369602152773</v>
       </c>
       <c r="F3">
-        <v>0.4920039068668061</v>
+        <v>0.4554661223972971</v>
       </c>
       <c r="G3">
-        <v>0.0008081594002871485</v>
+        <v>0.003694575568637753</v>
       </c>
       <c r="H3">
-        <v>0.003368727890132428</v>
+        <v>0.004025484571466675</v>
       </c>
       <c r="I3">
-        <v>0.0004233160217212983</v>
+        <v>0.0007618203371864141</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2999127715902574</v>
+        <v>0.2663006969798793</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1537075619169102</v>
       </c>
       <c r="M3">
-        <v>0.9633340109524227</v>
+        <v>0.05901349546550883</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9714061148848998</v>
       </c>
       <c r="P3">
-        <v>0.7726605904001085</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.498163182229092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.737224330950399</v>
+      </c>
+      <c r="S3">
+        <v>1.362253710837749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7496895287875134</v>
+        <v>0.7274659002609667</v>
       </c>
       <c r="C4">
-        <v>0.1767532934177751</v>
+        <v>0.1938115134507967</v>
       </c>
       <c r="D4">
-        <v>0.05404659972659687</v>
+        <v>0.05388286943509257</v>
       </c>
       <c r="E4">
-        <v>1.026699161184283</v>
+        <v>1.034908860582107</v>
       </c>
       <c r="F4">
-        <v>0.4729562477877352</v>
+        <v>0.437633654301564</v>
       </c>
       <c r="G4">
-        <v>0.0008099016457540076</v>
+        <v>0.004742116491059656</v>
       </c>
       <c r="H4">
-        <v>0.002364732714692064</v>
+        <v>0.002973727847033869</v>
       </c>
       <c r="I4">
-        <v>0.0004475078506631647</v>
+        <v>0.0006158134231499801</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2981956994808712</v>
+        <v>0.2652686806308395</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1561460092391727</v>
       </c>
       <c r="M4">
-        <v>0.8761164352880542</v>
+        <v>0.05711206878510389</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8847526498924196</v>
       </c>
       <c r="P4">
-        <v>0.7896182207548534</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.460855694509746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7509334377714296</v>
+      </c>
+      <c r="S4">
+        <v>1.327570147927645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7180098701341819</v>
+        <v>0.6980166487937254</v>
       </c>
       <c r="C5">
-        <v>0.1707969082291925</v>
+        <v>0.186615915682367</v>
       </c>
       <c r="D5">
-        <v>0.0524752677149749</v>
+        <v>0.0520975191816504</v>
       </c>
       <c r="E5">
-        <v>0.9848229416467831</v>
+        <v>0.9931541426937684</v>
       </c>
       <c r="F5">
-        <v>0.4648850825933977</v>
+        <v>0.4300184828329918</v>
       </c>
       <c r="G5">
-        <v>0.0008106309252455151</v>
+        <v>0.005219240812870035</v>
       </c>
       <c r="H5">
-        <v>0.001998125172485654</v>
+        <v>0.002581726334685452</v>
       </c>
       <c r="I5">
-        <v>0.00056103408096142</v>
+        <v>0.0006601672999417829</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2972163877584286</v>
+        <v>0.2645588393379832</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1569999363383587</v>
       </c>
       <c r="M5">
-        <v>0.8405159240849116</v>
+        <v>0.05638490866916079</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.849362292209463</v>
       </c>
       <c r="P5">
-        <v>0.7966243345222335</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.444590384205469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7566304694301049</v>
+      </c>
+      <c r="S5">
+        <v>1.312252687976908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7118932036451895</v>
+        <v>0.6922867798800496</v>
       </c>
       <c r="C6">
-        <v>0.1702917994175834</v>
+        <v>0.1859359510170151</v>
       </c>
       <c r="D6">
-        <v>0.0522729868594638</v>
+        <v>0.05186164518726599</v>
       </c>
       <c r="E6">
-        <v>0.9778561611439329</v>
+        <v>0.9862076089803651</v>
       </c>
       <c r="F6">
-        <v>0.4630535752098268</v>
+        <v>0.4282719670416881</v>
       </c>
       <c r="G6">
-        <v>0.0008107584546058765</v>
+        <v>0.005305131116010692</v>
       </c>
       <c r="H6">
-        <v>0.001938825892052076</v>
+        <v>0.002517857064665341</v>
       </c>
       <c r="I6">
-        <v>0.000670372155624932</v>
+        <v>0.0007717862485616678</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2966637024370904</v>
+        <v>0.2640735555983724</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1569543856918933</v>
       </c>
       <c r="M6">
-        <v>0.8345613089331323</v>
+        <v>0.0561805716443935</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8434429101915555</v>
       </c>
       <c r="P6">
-        <v>0.797752037834802</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.440273420113712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7575750086893045</v>
+      </c>
+      <c r="S6">
+        <v>1.308134588589922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7469309122915035</v>
+        <v>0.7234866859702151</v>
       </c>
       <c r="C7">
-        <v>0.1779911144194557</v>
+        <v>0.1939601322151816</v>
       </c>
       <c r="D7">
-        <v>0.05418653842238541</v>
+        <v>0.05435587342370951</v>
       </c>
       <c r="E7">
-        <v>1.026094464929059</v>
+        <v>1.034228980563853</v>
       </c>
       <c r="F7">
-        <v>0.4714888836381448</v>
+        <v>0.4336191204367026</v>
       </c>
       <c r="G7">
-        <v>0.0008099262672515176</v>
+        <v>0.005028768701963893</v>
       </c>
       <c r="H7">
-        <v>0.002356760157380844</v>
+        <v>0.002959372436499352</v>
       </c>
       <c r="I7">
-        <v>0.0006747372567446064</v>
+        <v>0.0008773149279779346</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2971105008930977</v>
+        <v>0.2630934314138571</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1550814474907796</v>
       </c>
       <c r="M7">
-        <v>0.875522154873039</v>
+        <v>0.0565363359371851</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8814563567743789</v>
       </c>
       <c r="P7">
-        <v>0.7896045048776843</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.456177197644607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7510109439330463</v>
+      </c>
+      <c r="S7">
+        <v>1.314640403464381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9029670340071334</v>
+        <v>0.8648012220535861</v>
       </c>
       <c r="C8">
-        <v>0.2110637610571189</v>
+        <v>0.2309408922978093</v>
       </c>
       <c r="D8">
-        <v>0.06245883061657054</v>
+        <v>0.06454885727490733</v>
       </c>
       <c r="E8">
-        <v>1.239267677076029</v>
+        <v>1.24645349956954</v>
       </c>
       <c r="F8">
-        <v>0.5108813189169155</v>
+        <v>0.4643692069975671</v>
       </c>
       <c r="G8">
-        <v>0.0008063686462850382</v>
+        <v>0.004359607341176464</v>
       </c>
       <c r="H8">
-        <v>0.004592143216790578</v>
+        <v>0.005253384821956364</v>
       </c>
       <c r="I8">
-        <v>0.0008012802416015319</v>
+        <v>0.001318275050665285</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3004793367712715</v>
+        <v>0.2623514952054187</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1488460988721982</v>
       </c>
       <c r="M8">
-        <v>1.056182979252128</v>
+        <v>0.05990862999719937</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.054479817734887</v>
       </c>
       <c r="P8">
-        <v>0.7549387761513415</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.533059192375021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7234255469658049</v>
+      </c>
+      <c r="S8">
+        <v>1.366309306271049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.210490116679267</v>
+        <v>1.146397199165619</v>
       </c>
       <c r="C9">
-        <v>0.2751031029168871</v>
+        <v>0.3073549265190252</v>
       </c>
       <c r="D9">
-        <v>0.07834887002412927</v>
+        <v>0.08309130265746489</v>
       </c>
       <c r="E9">
-        <v>1.659419010179931</v>
+        <v>1.664338064140324</v>
       </c>
       <c r="F9">
-        <v>0.5941602048165606</v>
+        <v>0.5382701182873291</v>
       </c>
       <c r="G9">
-        <v>0.0007998184669841037</v>
+        <v>0.002262989603628363</v>
       </c>
       <c r="H9">
-        <v>0.01060079760821643</v>
+        <v>0.01117750168129458</v>
       </c>
       <c r="I9">
-        <v>0.002058391213778599</v>
+        <v>0.002757742470396174</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3104795417955053</v>
+        <v>0.2673372894069814</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.139977463476157</v>
       </c>
       <c r="M9">
-        <v>1.410470322244635</v>
+        <v>0.07203784857045292</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.402724560400515</v>
       </c>
       <c r="P9">
-        <v>0.6915429854292086</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.701800911489357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6731280591066238</v>
+      </c>
+      <c r="S9">
+        <v>1.510007466922076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.428985070660957</v>
+        <v>1.337798741121304</v>
       </c>
       <c r="C10">
-        <v>0.3211728692221527</v>
+        <v>0.3551804589815788</v>
       </c>
       <c r="D10">
-        <v>0.09114083580552546</v>
+        <v>0.1000181383997401</v>
       </c>
       <c r="E10">
-        <v>1.870595801928317</v>
+        <v>1.872785709579873</v>
       </c>
       <c r="F10">
-        <v>0.6497534909371936</v>
+        <v>0.5717513154327207</v>
       </c>
       <c r="G10">
-        <v>0.0007954110714248155</v>
+        <v>0.009111779294205036</v>
       </c>
       <c r="H10">
-        <v>0.01573044920838651</v>
+        <v>0.01601863384003055</v>
       </c>
       <c r="I10">
-        <v>0.004001317339859867</v>
+        <v>0.004531991140561686</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3148656376030665</v>
+        <v>0.2618101384159246</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1303762920253426</v>
       </c>
       <c r="M10">
-        <v>1.66294566241038</v>
+        <v>0.07946268667549106</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.633747323942089</v>
       </c>
       <c r="P10">
-        <v>0.6487282488899151</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.806615613960787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6424391852132985</v>
+      </c>
+      <c r="S10">
+        <v>1.548117917947252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.481972139670518</v>
+        <v>1.37333257197082</v>
       </c>
       <c r="C11">
-        <v>0.3196805609823627</v>
+        <v>0.3374729316937248</v>
       </c>
       <c r="D11">
-        <v>0.1067043182843364</v>
+        <v>0.1217443041177688</v>
       </c>
       <c r="E11">
-        <v>1.197429659666909</v>
+        <v>1.197997641449263</v>
       </c>
       <c r="F11">
-        <v>0.6084902746655558</v>
+        <v>0.5042698551048588</v>
       </c>
       <c r="G11">
-        <v>0.0007945693445649179</v>
+        <v>0.04296099158986522</v>
       </c>
       <c r="H11">
-        <v>0.03179757517365545</v>
+        <v>0.03188475179285533</v>
       </c>
       <c r="I11">
-        <v>0.004948941329214307</v>
+        <v>0.005407514063934471</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2860794108215643</v>
+        <v>0.2256618860587309</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1147961531744972</v>
       </c>
       <c r="M11">
-        <v>1.706487389629075</v>
+        <v>0.06886973609040936</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.6408600677197</v>
       </c>
       <c r="P11">
-        <v>0.6404121007956505</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.642664282606773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6544140221612302</v>
+      </c>
+      <c r="S11">
+        <v>1.30922682050425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.484040091323038</v>
+        <v>1.371310562845537</v>
       </c>
       <c r="C12">
-        <v>0.3069562949744977</v>
+        <v>0.3155437482678849</v>
       </c>
       <c r="D12">
-        <v>0.1174963830736857</v>
+        <v>0.1357936925114558</v>
       </c>
       <c r="E12">
-        <v>0.7149195644052782</v>
+        <v>0.71515748446636</v>
       </c>
       <c r="F12">
-        <v>0.5646361138680689</v>
+        <v>0.453400068165017</v>
       </c>
       <c r="G12">
-        <v>0.0007946244406283338</v>
+        <v>0.06737666521338781</v>
       </c>
       <c r="H12">
-        <v>0.06840534995396297</v>
+        <v>0.06844838691635857</v>
       </c>
       <c r="I12">
-        <v>0.004953833427992826</v>
+        <v>0.005369916623704007</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2633526118698271</v>
+        <v>0.203351100988808</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.106413973495016</v>
       </c>
       <c r="M12">
-        <v>1.689776283257601</v>
+        <v>0.06081973555890485</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.608475450488754</v>
       </c>
       <c r="P12">
-        <v>0.6462421972302508</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.493659025993196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6752861157297261</v>
+      </c>
+      <c r="S12">
+        <v>1.145895320822888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.443370827590201</v>
+        <v>1.340194771065541</v>
       </c>
       <c r="C13">
-        <v>0.2870909192465945</v>
+        <v>0.2936721442959822</v>
       </c>
       <c r="D13">
-        <v>0.1253650612740103</v>
+        <v>0.1432650402311424</v>
       </c>
       <c r="E13">
-        <v>0.3511844151209047</v>
+        <v>0.3516305954547292</v>
       </c>
       <c r="F13">
-        <v>0.5141529017335529</v>
+        <v>0.4140984687872731</v>
       </c>
       <c r="G13">
-        <v>0.0007953894700163961</v>
+        <v>0.06155250840452098</v>
       </c>
       <c r="H13">
-        <v>0.1222088883845061</v>
+        <v>0.1223069806624295</v>
       </c>
       <c r="I13">
-        <v>0.004558512101170642</v>
+        <v>0.005042212424770653</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2422481920350457</v>
+        <v>0.1895761750770681</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1020805672945393</v>
       </c>
       <c r="M13">
-        <v>1.625772921327325</v>
+        <v>0.05449269626998188</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.550513082401949</v>
       </c>
       <c r="P13">
-        <v>0.6624050703624036</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.340603913491947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6968909866930062</v>
+      </c>
+      <c r="S13">
+        <v>1.032739778551147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.395057963990666</v>
+        <v>1.304444486772439</v>
       </c>
       <c r="C14">
-        <v>0.2705424965190844</v>
+        <v>0.2785410861861237</v>
       </c>
       <c r="D14">
-        <v>0.1296119490071277</v>
+        <v>0.1454643666373414</v>
       </c>
       <c r="E14">
-        <v>0.1685017502869002</v>
+        <v>0.1691419836986086</v>
       </c>
       <c r="F14">
-        <v>0.475873921241984</v>
+        <v>0.3905917284081042</v>
       </c>
       <c r="G14">
-        <v>0.0007962351491881091</v>
+        <v>0.0449204743279914</v>
       </c>
       <c r="H14">
-        <v>0.1703241358631971</v>
+        <v>0.1704905142967164</v>
       </c>
       <c r="I14">
-        <v>0.004200356141486949</v>
+        <v>0.004782699801156198</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2281698700737351</v>
+        <v>0.1829906167911304</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1004483699580074</v>
       </c>
       <c r="M14">
-        <v>1.559946152937897</v>
+        <v>0.05067883902638748</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.49801366288591</v>
       </c>
       <c r="P14">
-        <v>0.6786910246425677</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.232058973513702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7112058262143037</v>
+      </c>
+      <c r="S14">
+        <v>0.9714799843730049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.373352862705758</v>
+        <v>1.288379832686672</v>
       </c>
       <c r="C15">
-        <v>0.2654497542880137</v>
+        <v>0.2749418582315286</v>
       </c>
       <c r="D15">
-        <v>0.1300056808951524</v>
+        <v>0.1446062801579018</v>
       </c>
       <c r="E15">
-        <v>0.1329849150121269</v>
+        <v>0.1337169183873961</v>
       </c>
       <c r="F15">
-        <v>0.4646834793911054</v>
+        <v>0.3859736225583319</v>
       </c>
       <c r="G15">
-        <v>0.0007966152918820191</v>
+        <v>0.03650697269734238</v>
       </c>
       <c r="H15">
-        <v>0.1824286811170026</v>
+        <v>0.1826265054776854</v>
       </c>
       <c r="I15">
-        <v>0.004135457947320731</v>
+        <v>0.004781019144536103</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2246921731394096</v>
+        <v>0.1823889311704683</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1005573999190084</v>
       </c>
       <c r="M15">
-        <v>1.533945301947398</v>
+        <v>0.04986177608793518</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.479137098064939</v>
       </c>
       <c r="P15">
-        <v>0.6844849728423412</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.203008168196206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.714108671828015</v>
+      </c>
+      <c r="S15">
+        <v>0.962246908336752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.287260289661418</v>
+        <v>1.223996461062796</v>
       </c>
       <c r="C16">
-        <v>0.2510243885698173</v>
+        <v>0.2697946482216764</v>
       </c>
       <c r="D16">
-        <v>0.1226622801882229</v>
+        <v>0.1311732692094267</v>
       </c>
       <c r="E16">
-        <v>0.1300955414982781</v>
+        <v>0.1314375601830449</v>
       </c>
       <c r="F16">
-        <v>0.4508453900077924</v>
+        <v>0.3973418805326787</v>
       </c>
       <c r="G16">
-        <v>0.0007983260857404199</v>
+        <v>0.008418432757196115</v>
       </c>
       <c r="H16">
-        <v>0.1682037511020127</v>
+        <v>0.1685332050444259</v>
       </c>
       <c r="I16">
-        <v>0.003500528841928308</v>
+        <v>0.004316793668663443</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2265393729602394</v>
+        <v>0.1931556289718692</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1060724299702507</v>
       </c>
       <c r="M16">
-        <v>1.440019302480664</v>
+        <v>0.05125007939571091</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.41746738059507</v>
       </c>
       <c r="P16">
-        <v>0.6972501781476979</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.188187478638127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7077191263070546</v>
+      </c>
+      <c r="S16">
+        <v>1.018799948519444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2467322427851</v>
+        <v>1.191355478316495</v>
       </c>
       <c r="C17">
-        <v>0.2486964320545013</v>
+        <v>0.2724840207596202</v>
       </c>
       <c r="D17">
-        <v>0.1148012661698345</v>
+        <v>0.1207154095993843</v>
       </c>
       <c r="E17">
-        <v>0.2114142197496065</v>
+        <v>0.2132991114339546</v>
       </c>
       <c r="F17">
-        <v>0.4604109683493576</v>
+        <v>0.4161791784447928</v>
       </c>
       <c r="G17">
-        <v>0.0007992051364068433</v>
+        <v>0.002530279634605392</v>
       </c>
       <c r="H17">
-        <v>0.1298701702007321</v>
+        <v>0.1302590083553525</v>
       </c>
       <c r="I17">
-        <v>0.003230661652398048</v>
+        <v>0.0041129382327183</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2353375377114233</v>
+        <v>0.2044169813669043</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1113499896502397</v>
       </c>
       <c r="M17">
-        <v>1.402765159178358</v>
+        <v>0.05387671542298733</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.393841350116162</v>
       </c>
       <c r="P17">
-        <v>0.6985798493468067</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.233779477400191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.6994978229428455</v>
+      </c>
+      <c r="S17">
+        <v>1.089356130767442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.242659473472088</v>
+        <v>1.187322996823042</v>
       </c>
       <c r="C18">
-        <v>0.2557154046089636</v>
+        <v>0.2838220430223117</v>
       </c>
       <c r="D18">
-        <v>0.1056663867542369</v>
+        <v>0.1105678490763466</v>
       </c>
       <c r="E18">
-        <v>0.4369667399520267</v>
+        <v>0.4395239388971675</v>
       </c>
       <c r="F18">
-        <v>0.4925976069351847</v>
+        <v>0.4497834109034429</v>
       </c>
       <c r="G18">
-        <v>0.0007993838085612808</v>
+        <v>0.001162131896219609</v>
       </c>
       <c r="H18">
-        <v>0.07752420463119591</v>
+        <v>0.07795288164902558</v>
       </c>
       <c r="I18">
-        <v>0.002950747483781768</v>
+        <v>0.003806420419007139</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2522788248560168</v>
+        <v>0.2201570901882661</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1179577988815144</v>
       </c>
       <c r="M18">
-        <v>1.410088694735805</v>
+        <v>0.05891502424090511</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.406624801219635</v>
       </c>
       <c r="P18">
-        <v>0.6914946658650543</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.342208218888601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.6866892096252251</v>
+      </c>
+      <c r="S18">
+        <v>1.19940058146797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.263884105754641</v>
+        <v>1.203639971182042</v>
       </c>
       <c r="C19">
-        <v>0.2726846324413117</v>
+        <v>0.3054917738488996</v>
       </c>
       <c r="D19">
-        <v>0.09686203273913918</v>
+        <v>0.1016198156371502</v>
       </c>
       <c r="E19">
-        <v>0.8587514802509872</v>
+        <v>0.8620220416245701</v>
       </c>
       <c r="F19">
-        <v>0.5394813973841721</v>
+        <v>0.4935343822768701</v>
       </c>
       <c r="G19">
-        <v>0.0007989087836157006</v>
+        <v>0.0008070720503123852</v>
       </c>
       <c r="H19">
-        <v>0.03412134496333152</v>
+        <v>0.03458671554957249</v>
       </c>
       <c r="I19">
-        <v>0.003205633512754602</v>
+        <v>0.004080229931572532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2737964739936558</v>
+        <v>0.2382845080800493</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1250613261723785</v>
       </c>
       <c r="M19">
-        <v>1.45302704938311</v>
+        <v>0.06553381423469418</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.450563985281974</v>
       </c>
       <c r="P19">
-        <v>0.6813830986221561</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.4915771533623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6728993686747486</v>
+      </c>
+      <c r="S19">
+        <v>1.336701649679696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.364022314695319</v>
+        <v>1.285224664123916</v>
       </c>
       <c r="C20">
-        <v>0.3131123976892525</v>
+        <v>0.3513226649991736</v>
       </c>
       <c r="D20">
-        <v>0.08834686855574603</v>
+        <v>0.09485642312843368</v>
       </c>
       <c r="E20">
-        <v>1.810744308571131</v>
+        <v>1.814006285401064</v>
       </c>
       <c r="F20">
-        <v>0.630422195399241</v>
+        <v>0.5677041279552952</v>
       </c>
       <c r="G20">
-        <v>0.0007965950614662685</v>
+        <v>0.002513193212864806</v>
       </c>
       <c r="H20">
-        <v>0.01424499418812175</v>
+        <v>0.0146629444081432</v>
       </c>
       <c r="I20">
-        <v>0.004125194432566204</v>
+        <v>0.004912025773304407</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3102135500838301</v>
+        <v>0.2640930634351335</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1331201724185362</v>
       </c>
       <c r="M20">
-        <v>1.59589833596138</v>
+        <v>0.07775747338310524</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.582549014225435</v>
       </c>
       <c r="P20">
-        <v>0.6598616665483661</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.763776740876011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.6496840425566184</v>
+      </c>
+      <c r="S20">
+        <v>1.553284666080657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.540297073504917</v>
+        <v>1.412992421993124</v>
       </c>
       <c r="C21">
-        <v>0.3525502051972182</v>
+        <v>0.3699953910468992</v>
       </c>
       <c r="D21">
-        <v>0.09646792756041833</v>
+        <v>0.1133036198722408</v>
       </c>
       <c r="E21">
-        <v>2.128122948087267</v>
+        <v>2.127475867953365</v>
       </c>
       <c r="F21">
-        <v>0.6866752155629143</v>
+        <v>0.5577132822549231</v>
       </c>
       <c r="G21">
-        <v>0.0007930694409253671</v>
+        <v>0.06403267719352357</v>
       </c>
       <c r="H21">
-        <v>0.01938830081345611</v>
+        <v>0.01930037608389679</v>
       </c>
       <c r="I21">
-        <v>0.005899179760270101</v>
+        <v>0.006217581282990103</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3200543924178731</v>
+        <v>0.2451613932843983</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1211691867352904</v>
       </c>
       <c r="M21">
-        <v>1.802609120136964</v>
+        <v>0.07770479860261403</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.718692310716875</v>
       </c>
       <c r="P21">
-        <v>0.6269144559036022</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.887411468036561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6339281247277029</v>
+      </c>
+      <c r="S21">
+        <v>1.468954057526361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.656012425818147</v>
+        <v>1.49463594091344</v>
       </c>
       <c r="C22">
-        <v>0.3753893577645897</v>
+        <v>0.3772740822649325</v>
       </c>
       <c r="D22">
-        <v>0.1020905599278521</v>
+        <v>0.126668313701785</v>
       </c>
       <c r="E22">
-        <v>2.285634855882904</v>
+        <v>2.282258523152009</v>
       </c>
       <c r="F22">
-        <v>0.721999030724092</v>
+        <v>0.5465285534510542</v>
       </c>
       <c r="G22">
-        <v>0.0007908641264048861</v>
+        <v>0.153360375358865</v>
       </c>
       <c r="H22">
-        <v>0.02279560948224679</v>
+        <v>0.02232038334903641</v>
       </c>
       <c r="I22">
-        <v>0.006972824781719567</v>
+        <v>0.006825876162857902</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3263252885768715</v>
+        <v>0.2317180082928303</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1136124254107855</v>
       </c>
       <c r="M22">
-        <v>1.933989718543785</v>
+        <v>0.07704199117816302</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.799055709489409</v>
       </c>
       <c r="P22">
-        <v>0.6063328465316751</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.963389022759287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.628383300746556</v>
+      </c>
+      <c r="S22">
+        <v>1.400726349545408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.597120517645635</v>
+        <v>1.457424345431974</v>
       </c>
       <c r="C23">
-        <v>0.3615489602472906</v>
+        <v>0.3747981628550008</v>
       </c>
       <c r="D23">
-        <v>0.09888934104898794</v>
+        <v>0.1182282772055316</v>
       </c>
       <c r="E23">
-        <v>2.201546780923366</v>
+        <v>2.199812011093826</v>
       </c>
       <c r="F23">
-        <v>0.7046894426359529</v>
+        <v>0.5603008256128916</v>
       </c>
       <c r="G23">
-        <v>0.0007920236145389775</v>
+        <v>0.08738673776383621</v>
       </c>
       <c r="H23">
-        <v>0.02095705663293068</v>
+        <v>0.02071725934092949</v>
       </c>
       <c r="I23">
-        <v>0.006110070844381532</v>
+        <v>0.006179440114811641</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3241980826152613</v>
+        <v>0.2424568677149672</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1187547535315474</v>
       </c>
       <c r="M23">
-        <v>1.863995038963452</v>
+        <v>0.07894582405359429</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.763745674883239</v>
       </c>
       <c r="P23">
-        <v>0.6172041612102088</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.92790005329249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6289138120745292</v>
+      </c>
+      <c r="S23">
+        <v>1.461428866571339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.369300325947478</v>
+        <v>1.290105653287469</v>
       </c>
       <c r="C24">
-        <v>0.3122953654902574</v>
+        <v>0.3509589509245927</v>
       </c>
       <c r="D24">
-        <v>0.08709358162582248</v>
+        <v>0.09349438951880984</v>
       </c>
       <c r="E24">
-        <v>1.884586193854233</v>
+        <v>1.887902608806684</v>
       </c>
       <c r="F24">
-        <v>0.6379525779961028</v>
+        <v>0.575114355454339</v>
       </c>
       <c r="G24">
-        <v>0.0007965224782822372</v>
+        <v>0.00232588652889909</v>
       </c>
       <c r="H24">
-        <v>0.01456780751590514</v>
+        <v>0.01498946780516419</v>
       </c>
       <c r="I24">
-        <v>0.003698846063836747</v>
+        <v>0.004387707701643428</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3147120172364097</v>
+        <v>0.2681166885630404</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1346910826986871</v>
       </c>
       <c r="M24">
-        <v>1.599200679908932</v>
+        <v>0.07922651795311353</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.586348298826664</v>
       </c>
       <c r="P24">
-        <v>0.6597507710592208</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.788975103043157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6485899585459158</v>
+      </c>
+      <c r="S24">
+        <v>1.577657577098563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123253363112468</v>
+        <v>1.068415311047147</v>
       </c>
       <c r="C25">
-        <v>0.2600213575062895</v>
+        <v>0.2907501260980752</v>
       </c>
       <c r="D25">
-        <v>0.07435141483836816</v>
+        <v>0.0778834302050484</v>
       </c>
       <c r="E25">
-        <v>1.5453486550565</v>
+        <v>1.551099108910748</v>
       </c>
       <c r="F25">
-        <v>0.5687394283625906</v>
+        <v>0.5193543678422969</v>
       </c>
       <c r="G25">
-        <v>0.0008015668311668889</v>
+        <v>0.001670338043764374</v>
       </c>
       <c r="H25">
-        <v>0.008771444687568103</v>
+        <v>0.009412038474426107</v>
       </c>
       <c r="I25">
-        <v>0.001945517841758004</v>
+        <v>0.002729298431924931</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3056803493350131</v>
+        <v>0.2657921311444191</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1422691815156796</v>
       </c>
       <c r="M25">
-        <v>1.314371969868148</v>
+        <v>0.06828831527194978</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.312344974723118</v>
       </c>
       <c r="P25">
-        <v>0.7081558979477034</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.646915899296431</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6862353992866641</v>
+      </c>
+      <c r="S25">
+        <v>1.474792413554638</v>
       </c>
     </row>
   </sheetData>
